--- a/backend/fms_core/tests/valid_templates/Sample_transfer_v4_10_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_transfer_v4_10_0.xlsx
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Current Volume (uL)</t>
   </si>
   <si>
-    <t xml:space="preserve">New Current Volume (uL)</t>
+    <t xml:space="preserve">Corrected Current Volume (uL)</t>
   </si>
   <si>
     <t xml:space="preserve">Volume Used (uL)</t>
@@ -2216,7 +2216,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2232,7 +2232,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="34.83"/>
